--- a/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboardAccount.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboardAccount.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadhanlala\source\repos\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E84A40-C3DE-4245-8970-74F78D468A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="2136" yWindow="1836" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -460,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -474,10 +475,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -488,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -502,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>

--- a/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboardAccount.xlsx
+++ b/MoneyTracker/Helpers/Excel/SeedFiles/UserDashboardAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\MoneyTracker\MoneyTracker\Helpers\Excel\SeedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IQ\Projects\NedBank\Code\BitBucket\dev\nedbank-money-tracker\src\Nedbank.MoneyTracker.Api\Helpers\Excel\SeedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E84A40-C3DE-4245-8970-74F78D468A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6A5808-20DB-4D2B-858B-0678BA7A1B32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="1836" windowWidth="21600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4368" yWindow="1308" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,9 +513,15 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
